--- a/Model Core Files/resultsprovdiscountin.xlsx
+++ b/Model Core Files/resultsprovdiscountin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>No Screening</t>
   </si>
@@ -89,11 +89,20 @@
   <si>
     <t>PROCASfull</t>
   </si>
+  <si>
+    <t>Rank 20k</t>
+  </si>
+  <si>
+    <t>Rank 30k</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,8 +580,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -894,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK43"/>
+  <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3909,6 +3921,12 @@
       <c r="K37" t="s">
         <v>19</v>
       </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -4167,6 +4185,170 @@
       </c>
       <c r="N43">
         <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="1">
+        <v>14.870081346882442</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1223.638576976042</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>14.903186392005557</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1581.6936782550085</v>
+      </c>
+      <c r="H48" s="3">
+        <v>10815.726121121079</v>
+      </c>
+      <c r="I48" s="3">
+        <v>304.04580118333274</v>
+      </c>
+      <c r="J48" s="3">
+        <v>635.09625241448236</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>14.915776950136596</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1805.455745774658</v>
+      </c>
+      <c r="H49" s="3">
+        <v>12732.454051708348</v>
+      </c>
+      <c r="I49" s="3">
+        <v>332.09489628447295</v>
+      </c>
+      <c r="J49" s="3">
+        <v>789.05092882601753</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>14.899084541079329</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1550.5530621699743</v>
+      </c>
+      <c r="H50" s="3">
+        <v>11271.671767415777</v>
+      </c>
+      <c r="I50" s="3">
+        <v>253.1493987438148</v>
+      </c>
+      <c r="J50" s="3">
+        <v>543.18134071268821</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="1">
+        <v>14.910057984278648</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1715.0635763272928</v>
+      </c>
+      <c r="H51" s="3">
+        <v>12292.804781972141</v>
+      </c>
+      <c r="I51" s="3">
+        <v>308.1077485728747</v>
+      </c>
+      <c r="J51" s="3">
+        <v>707.87412253493744</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="1">
+        <v>14.902113272357276</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1567.6143817278114</v>
+      </c>
+      <c r="H52" s="3">
+        <v>10738.530377201652</v>
+      </c>
+      <c r="I52" s="3">
+        <v>296.66270474491989</v>
+      </c>
+      <c r="J52" s="3">
+        <v>616.98195949326464</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
         <v>4</v>
       </c>
     </row>

--- a/Model Core Files/resultsprovdiscountin.xlsx
+++ b/Model Core Files/resultsprovdiscountin.xlsx
@@ -906,13 +906,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK52"/>
+  <dimension ref="A1:AK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
@@ -4248,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
         <v>2</v>
       </c>
@@ -4274,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
         <v>3</v>
       </c>
@@ -4300,7 +4304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
         <v>21</v>
       </c>
@@ -4326,7 +4330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
         <v>22</v>
       </c>
@@ -4352,7 +4356,65 @@
         <v>4</v>
       </c>
     </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>